--- a/H_BimNote/Total BOQ_blank_팀표준(20241216).xlsx
+++ b/H_BimNote/Total BOQ_blank_팀표준(20241216).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\2024_물량산출 마무리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\H_BimNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{BE30CFF1-72B8-4239-8E66-56A739E92685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{FC299F16-421E-49FD-895D-2B1602F56767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/H_BimNote/Total BOQ_blank_팀표준(20241216).xlsx
+++ b/H_BimNote/Total BOQ_blank_팀표준(20241216).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\H_BimNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{FC299F16-421E-49FD-895D-2B1602F56767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{B9CEFD4D-32B8-4AEE-A052-9233074FA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
